--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/St6gal1-Cd22.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.893987</v>
+        <v>3.683228666666667</v>
       </c>
       <c r="H2">
-        <v>11.681961</v>
+        <v>11.049686</v>
       </c>
       <c r="I2">
-        <v>0.143037189732266</v>
+        <v>0.1499797304438824</v>
       </c>
       <c r="J2">
-        <v>0.143037189732266</v>
+        <v>0.1499797304438824</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="N2">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="O2">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="P2">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="Q2">
-        <v>36.29000276053033</v>
+        <v>3.869816119948446</v>
       </c>
       <c r="R2">
-        <v>326.610024844773</v>
+        <v>34.82834507953601</v>
       </c>
       <c r="S2">
-        <v>0.06622055040955951</v>
+        <v>0.02271112778075496</v>
       </c>
       <c r="T2">
-        <v>0.06622055040955954</v>
+        <v>0.02271112778075496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.893987</v>
+        <v>3.683228666666667</v>
       </c>
       <c r="H3">
-        <v>11.681961</v>
+        <v>11.049686</v>
       </c>
       <c r="I3">
-        <v>0.143037189732266</v>
+        <v>0.1499797304438824</v>
       </c>
       <c r="J3">
-        <v>0.143037189732266</v>
+        <v>0.1499797304438824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="N3">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="O3">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="P3">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="Q3">
-        <v>2.785210545628666</v>
+        <v>3.232480053411556</v>
       </c>
       <c r="R3">
-        <v>25.066894910658</v>
+        <v>29.092320480704</v>
       </c>
       <c r="S3">
-        <v>0.005082341176855412</v>
+        <v>0.01897073795401666</v>
       </c>
       <c r="T3">
-        <v>0.005082341176855414</v>
+        <v>0.01897073795401666</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.893987</v>
+        <v>3.683228666666667</v>
       </c>
       <c r="H4">
-        <v>11.681961</v>
+        <v>11.049686</v>
       </c>
       <c r="I4">
-        <v>0.143037189732266</v>
+        <v>0.1499797304438824</v>
       </c>
       <c r="J4">
-        <v>0.143037189732266</v>
+        <v>0.1499797304438824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="N4">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="O4">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="P4">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="Q4">
-        <v>39.31163153488134</v>
+        <v>18.45319293049134</v>
       </c>
       <c r="R4">
-        <v>353.804683813932</v>
+        <v>166.078736374422</v>
       </c>
       <c r="S4">
-        <v>0.07173429814585101</v>
+        <v>0.1082978647091108</v>
       </c>
       <c r="T4">
-        <v>0.07173429814585103</v>
+        <v>0.1082978647091108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>2.800162</v>
       </c>
       <c r="I5">
-        <v>0.03428596476867894</v>
+        <v>0.03800719241788433</v>
       </c>
       <c r="J5">
-        <v>0.03428596476867894</v>
+        <v>0.03800719241788433</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="N5">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="O5">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="P5">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="Q5">
-        <v>8.698701075096222</v>
+        <v>0.9806714911235557</v>
       </c>
       <c r="R5">
-        <v>78.288309675866</v>
+        <v>8.826043420112001</v>
       </c>
       <c r="S5">
-        <v>0.01587304296564019</v>
+        <v>0.005755352413526898</v>
       </c>
       <c r="T5">
-        <v>0.01587304296564019</v>
+        <v>0.005755352413526897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>2.800162</v>
       </c>
       <c r="I6">
-        <v>0.03428596476867894</v>
+        <v>0.03800719241788433</v>
       </c>
       <c r="J6">
-        <v>0.03428596476867894</v>
+        <v>0.03800719241788433</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="N6">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="O6">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="P6">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="Q6">
-        <v>0.6676140017817778</v>
+        <v>0.8191606359964444</v>
       </c>
       <c r="R6">
-        <v>6.008526016036</v>
+        <v>7.372445723968</v>
       </c>
       <c r="S6">
-        <v>0.001218235417364071</v>
+        <v>0.004807479554694604</v>
       </c>
       <c r="T6">
-        <v>0.001218235417364072</v>
+        <v>0.004807479554694604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>2.800162</v>
       </c>
       <c r="I7">
-        <v>0.03428596476867894</v>
+        <v>0.03800719241788433</v>
       </c>
       <c r="J7">
-        <v>0.03428596476867894</v>
+        <v>0.03800719241788433</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="N7">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="O7">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="P7">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="Q7">
-        <v>9.422984444304889</v>
+        <v>4.676325609852667</v>
       </c>
       <c r="R7">
-        <v>84.806859998744</v>
+        <v>42.086930488674</v>
       </c>
       <c r="S7">
-        <v>0.01719468638567467</v>
+        <v>0.02744436044966284</v>
       </c>
       <c r="T7">
-        <v>0.01719468638567467</v>
+        <v>0.02744436044966283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.286864</v>
+        <v>4.395451333333333</v>
       </c>
       <c r="H8">
-        <v>18.860592</v>
+        <v>13.186354</v>
       </c>
       <c r="I8">
-        <v>0.2309343505227297</v>
+        <v>0.1789811781490995</v>
       </c>
       <c r="J8">
-        <v>0.2309343505227297</v>
+        <v>0.1789811781490995</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="N8">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="O8">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="P8">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="Q8">
-        <v>58.59041437865067</v>
+        <v>4.618119037278222</v>
       </c>
       <c r="R8">
-        <v>527.313729407856</v>
+        <v>41.56307133550401</v>
       </c>
       <c r="S8">
-        <v>0.1069134525693191</v>
+        <v>0.02710275845451801</v>
       </c>
       <c r="T8">
-        <v>0.1069134525693191</v>
+        <v>0.027102758454518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.286864</v>
+        <v>4.395451333333333</v>
       </c>
       <c r="H9">
-        <v>18.860592</v>
+        <v>13.186354</v>
       </c>
       <c r="I9">
-        <v>0.2309343505227297</v>
+        <v>0.1789811781490995</v>
       </c>
       <c r="J9">
-        <v>0.2309343505227297</v>
+        <v>0.1789811781490995</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="N9">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="O9">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="P9">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="Q9">
-        <v>4.496738153397334</v>
+        <v>3.857541859761778</v>
       </c>
       <c r="R9">
-        <v>40.470643380576</v>
+        <v>34.717876737856</v>
       </c>
       <c r="S9">
-        <v>0.008205468528911353</v>
+        <v>0.02263909275819235</v>
       </c>
       <c r="T9">
-        <v>0.008205468528911354</v>
+        <v>0.02263909275819235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.286864</v>
+        <v>4.395451333333333</v>
       </c>
       <c r="H10">
-        <v>18.860592</v>
+        <v>13.186354</v>
       </c>
       <c r="I10">
-        <v>0.2309343505227297</v>
+        <v>0.1789811781490995</v>
       </c>
       <c r="J10">
-        <v>0.2309343505227297</v>
+        <v>0.1789811781490995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="N10">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="O10">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="P10">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="Q10">
-        <v>63.46885109732268</v>
+        <v>22.02147051162867</v>
       </c>
       <c r="R10">
-        <v>571.2196598759041</v>
+        <v>198.193234604658</v>
       </c>
       <c r="S10">
-        <v>0.1158154294244993</v>
+        <v>0.1292393269363891</v>
       </c>
       <c r="T10">
-        <v>0.1158154294244993</v>
+        <v>0.1292393269363891</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.420479333333333</v>
+        <v>2.406480666666666</v>
       </c>
       <c r="H11">
-        <v>10.261438</v>
+        <v>7.219442</v>
       </c>
       <c r="I11">
-        <v>0.1256439097966415</v>
+        <v>0.09799101667823351</v>
       </c>
       <c r="J11">
-        <v>0.1256439097966415</v>
+        <v>0.09799101667823353</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="N11">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="O11">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="P11">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="Q11">
-        <v>31.87714916588155</v>
+        <v>2.528389768599111</v>
       </c>
       <c r="R11">
-        <v>286.894342492934</v>
+        <v>22.755507917392</v>
       </c>
       <c r="S11">
-        <v>0.05816815107956359</v>
+        <v>0.01483858181741537</v>
       </c>
       <c r="T11">
-        <v>0.05816815107956359</v>
+        <v>0.01483858181741537</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.420479333333333</v>
+        <v>2.406480666666666</v>
       </c>
       <c r="H12">
-        <v>10.261438</v>
+        <v>7.219442</v>
       </c>
       <c r="I12">
-        <v>0.1256439097966415</v>
+        <v>0.09799101667823351</v>
       </c>
       <c r="J12">
-        <v>0.1256439097966415</v>
+        <v>0.09799101667823353</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="N12">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="O12">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="P12">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="Q12">
-        <v>2.446529767640444</v>
+        <v>2.111978771320889</v>
       </c>
       <c r="R12">
-        <v>22.018767908764</v>
+        <v>19.007808941888</v>
       </c>
       <c r="S12">
-        <v>0.004464329994009469</v>
+        <v>0.01239475423611331</v>
       </c>
       <c r="T12">
-        <v>0.00446432999400947</v>
+        <v>0.01239475423611331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.420479333333333</v>
+        <v>2.406480666666666</v>
       </c>
       <c r="H13">
-        <v>10.261438</v>
+        <v>7.219442</v>
       </c>
       <c r="I13">
-        <v>0.1256439097966415</v>
+        <v>0.09799101667823351</v>
       </c>
       <c r="J13">
-        <v>0.1256439097966415</v>
+        <v>0.09799101667823353</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="N13">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="O13">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="P13">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="Q13">
-        <v>34.53134877560623</v>
+        <v>12.05661012235933</v>
       </c>
       <c r="R13">
-        <v>310.782138980456</v>
+        <v>108.509491101234</v>
       </c>
       <c r="S13">
-        <v>0.06301142872306843</v>
+        <v>0.07075768062470485</v>
       </c>
       <c r="T13">
-        <v>0.06301142872306843</v>
+        <v>0.07075768062470485</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.116573333333333</v>
+        <v>2.383179</v>
       </c>
       <c r="H14">
-        <v>12.34972</v>
+        <v>7.149537</v>
       </c>
       <c r="I14">
-        <v>0.1512134172319493</v>
+        <v>0.09704218129443352</v>
       </c>
       <c r="J14">
-        <v>0.1512134172319493</v>
+        <v>0.09704218129443352</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="N14">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="O14">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="P14">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="Q14">
-        <v>38.36439557466223</v>
+        <v>2.503907670568001</v>
       </c>
       <c r="R14">
-        <v>345.27956017196</v>
+        <v>22.53516903511201</v>
       </c>
       <c r="S14">
-        <v>0.0700058197252966</v>
+        <v>0.01469490159089005</v>
       </c>
       <c r="T14">
-        <v>0.0700058197252966</v>
+        <v>0.01469490159089005</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.116573333333333</v>
+        <v>2.383179</v>
       </c>
       <c r="H15">
-        <v>12.34972</v>
+        <v>7.149537</v>
       </c>
       <c r="I15">
-        <v>0.1512134172319493</v>
+        <v>0.09704218129443352</v>
       </c>
       <c r="J15">
-        <v>0.1512134172319493</v>
+        <v>0.09704218129443352</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="N15">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="O15">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="P15">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="Q15">
-        <v>2.944417498017778</v>
+        <v>2.091528731552</v>
       </c>
       <c r="R15">
-        <v>26.49975748216</v>
+        <v>18.823758583968</v>
       </c>
       <c r="S15">
-        <v>0.005372855677110618</v>
+        <v>0.01227473730199631</v>
       </c>
       <c r="T15">
-        <v>0.005372855677110619</v>
+        <v>0.01227473730199631</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.116573333333333</v>
+        <v>2.383179</v>
       </c>
       <c r="H16">
-        <v>12.34972</v>
+        <v>7.149537</v>
       </c>
       <c r="I16">
-        <v>0.1512134172319493</v>
+        <v>0.09704218129443352</v>
       </c>
       <c r="J16">
-        <v>0.1512134172319493</v>
+        <v>0.09704218129443352</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="N16">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="O16">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="P16">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="Q16">
-        <v>41.55874533384889</v>
+        <v>11.939867397561</v>
       </c>
       <c r="R16">
-        <v>374.02870800464</v>
+        <v>107.458806578049</v>
       </c>
       <c r="S16">
-        <v>0.07583474182954208</v>
+        <v>0.07007254240154717</v>
       </c>
       <c r="T16">
-        <v>0.07583474182954208</v>
+        <v>0.07007254240154716</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.572307333333333</v>
+        <v>10.75644933333333</v>
       </c>
       <c r="H17">
-        <v>25.716922</v>
+        <v>32.269348</v>
       </c>
       <c r="I17">
-        <v>0.3148851679477345</v>
+        <v>0.4379987010164666</v>
       </c>
       <c r="J17">
-        <v>0.3148851679477346</v>
+        <v>0.4379987010164666</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.319497666666667</v>
+        <v>1.050658666666667</v>
       </c>
       <c r="N17">
-        <v>27.958493</v>
+        <v>3.151976</v>
       </c>
       <c r="O17">
-        <v>0.4629603708903242</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="P17">
-        <v>0.4629603708903243</v>
+        <v>0.1514279810580986</v>
       </c>
       <c r="Q17">
-        <v>79.88959819094956</v>
+        <v>11.30135671462756</v>
       </c>
       <c r="R17">
-        <v>719.006383718546</v>
+        <v>101.712210431648</v>
       </c>
       <c r="S17">
-        <v>0.1457793541409452</v>
+        <v>0.0663252590009933</v>
       </c>
       <c r="T17">
-        <v>0.1457793541409453</v>
+        <v>0.06632525900099329</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.572307333333333</v>
+        <v>10.75644933333333</v>
       </c>
       <c r="H18">
-        <v>25.716922</v>
+        <v>32.269348</v>
       </c>
       <c r="I18">
-        <v>0.3148851679477345</v>
+        <v>0.4379987010164666</v>
       </c>
       <c r="J18">
-        <v>0.3148851679477346</v>
+        <v>0.4379987010164666</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7152593333333334</v>
+        <v>0.8776213333333334</v>
       </c>
       <c r="N18">
-        <v>2.145778</v>
+        <v>2.632864</v>
       </c>
       <c r="O18">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="P18">
-        <v>0.03553160675463796</v>
+        <v>0.126488678822602</v>
       </c>
       <c r="Q18">
-        <v>6.131422828368445</v>
+        <v>9.440089405852445</v>
       </c>
       <c r="R18">
-        <v>55.182805455316</v>
+        <v>84.96080465267201</v>
       </c>
       <c r="S18">
-        <v>0.01118837596038703</v>
+        <v>0.0554018770175887</v>
       </c>
       <c r="T18">
-        <v>0.01118837596038704</v>
+        <v>0.0554018770175887</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.572307333333333</v>
+        <v>10.75644933333333</v>
       </c>
       <c r="H19">
-        <v>25.716922</v>
+        <v>32.269348</v>
       </c>
       <c r="I19">
-        <v>0.3148851679477345</v>
+        <v>0.4379987010164666</v>
       </c>
       <c r="J19">
-        <v>0.3148851679477346</v>
+        <v>0.4379987010164666</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.09547066666667</v>
+        <v>5.010059000000001</v>
       </c>
       <c r="N19">
-        <v>30.286412</v>
+        <v>15.030177</v>
       </c>
       <c r="O19">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192995</v>
       </c>
       <c r="P19">
-        <v>0.5015080223550378</v>
+        <v>0.7220833401192994</v>
       </c>
       <c r="Q19">
-        <v>86.54147722931822</v>
+        <v>53.89044579051068</v>
       </c>
       <c r="R19">
-        <v>778.873295063864</v>
+        <v>485.0140121145961</v>
       </c>
       <c r="S19">
-        <v>0.1579174378464023</v>
+        <v>0.3162715649978846</v>
       </c>
       <c r="T19">
-        <v>0.1579174378464023</v>
+        <v>0.3162715649978846</v>
       </c>
     </row>
   </sheetData>
